--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 1 (40, 15, 6, 37, 25)/Ableson 7 (0, 12, 11, 17, 44)/NCDE_32nodes_Uniform0.05Virtual_Nelson(40, 15, 6, 37, 25)_Ableson(0, 12, 11, 17, 44)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 1 (40, 15, 6, 37, 25)/Ableson 7 (0, 12, 11, 17, 44)/NCDE_32nodes_Uniform0.05Virtual_Nelson(40, 15, 6, 37, 25)_Ableson(0, 12, 11, 17, 44)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.999999896120325</v>
+        <v>0.9999998960702704</v>
       </c>
       <c r="E2">
-        <v>0.999999896120325</v>
+        <v>0.9999998960702704</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.539977538012046</v>
+        <v>0.5390893396198202</v>
       </c>
       <c r="E3">
-        <v>0.539977538012046</v>
+        <v>0.5390893396198202</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.2542405233534669</v>
+        <v>0.2543375261665211</v>
       </c>
       <c r="E4">
-        <v>0.2542405233534669</v>
+        <v>0.2543375261665211</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9999999999997411</v>
+        <v>0.9999999999997393</v>
       </c>
       <c r="E5">
-        <v>0.9999999999997411</v>
+        <v>0.9999999999997393</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9552876122003112</v>
+        <v>0.9552810817472699</v>
       </c>
       <c r="E6">
-        <v>0.9552876122003112</v>
+        <v>0.9552810817472699</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9998825114825793</v>
+        <v>0.9982971765322077</v>
       </c>
       <c r="E7">
-        <v>0.0001174885174206608</v>
+        <v>0.001702823467792269</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9998686359321507</v>
+        <v>4.705042337159972E-06</v>
       </c>
       <c r="E8">
-        <v>0.0001313640678493044</v>
+        <v>0.9999952949576628</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9998496029829909</v>
+        <v>4.308829648247285E-07</v>
       </c>
       <c r="E9">
-        <v>0.0001503970170091407</v>
+        <v>0.9999995691170351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9998721328404584</v>
+        <v>0.003132185964202254</v>
       </c>
       <c r="E10">
-        <v>0.0001278671595416059</v>
+        <v>0.9968678140357977</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9998744385666072</v>
+        <v>9.989395540884075E-06</v>
       </c>
       <c r="E11">
-        <v>0.0001255614333928179</v>
+        <v>0.9999900106044591</v>
       </c>
       <c r="F11">
-        <v>4.924045085906982</v>
+        <v>9.34364128112793</v>
       </c>
       <c r="G11">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9999999960237815</v>
+        <v>0.9999999960059296</v>
       </c>
       <c r="E12">
-        <v>0.9999999960237815</v>
+        <v>0.9999999960059296</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9999937999024722</v>
+        <v>0.9999937648440677</v>
       </c>
       <c r="E13">
-        <v>0.9999937999024722</v>
+        <v>0.9999937648440677</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.1189337105192217</v>
+        <v>0.1191411916853949</v>
       </c>
       <c r="E14">
-        <v>0.1189337105192217</v>
+        <v>0.1191411916853949</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.9997866086379303</v>
+        <v>0.9997847780293588</v>
       </c>
       <c r="E15">
-        <v>0.9997866086379303</v>
+        <v>0.9997847780293588</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9615023585923952</v>
+        <v>0.9614532388368155</v>
       </c>
       <c r="E16">
-        <v>0.9615023585923952</v>
+        <v>0.9614532388368155</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9998293719255275</v>
+        <v>0.9997364229273658</v>
       </c>
       <c r="E17">
-        <v>0.0001706280744725452</v>
+        <v>0.0002635770726342468</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.999814646739982</v>
+        <v>3.584884963629337E-08</v>
       </c>
       <c r="E18">
-        <v>0.0001853532600180063</v>
+        <v>0.9999999641511503</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9997828471071374</v>
+        <v>4.785727892366192E-06</v>
       </c>
       <c r="E19">
-        <v>0.0002171528928626154</v>
+        <v>0.9999952142721076</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9998195087146388</v>
+        <v>0.002217785662622349</v>
       </c>
       <c r="E20">
-        <v>0.0001804912853612395</v>
+        <v>0.9977822143373777</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.999823037145483</v>
+        <v>1.081268330654394E-08</v>
       </c>
       <c r="E21">
-        <v>0.0001769628545169599</v>
+        <v>0.9999999891873167</v>
       </c>
       <c r="F21">
-        <v>4.317097663879395</v>
+        <v>9.699823379516602</v>
       </c>
       <c r="G21">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
